--- a/Assets/Resources/Excel/Dialogue.xlsx
+++ b/Assets/Resources/Excel/Dialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Unity Demos\-YIN\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9C6C12-EF33-40D4-BF36-C95615A397D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3861AC-2450-4F9F-BD29-E82803E5DC52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>对话ID</t>
   </si>
@@ -53,34 +53,10 @@
     <t>jumpId</t>
   </si>
   <si>
-    <t>yinzi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王八蛋编瞎话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>continue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编瞎话王八蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yinzi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编瞎话的是？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选项组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王八蛋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,6 +98,82 @@
   </si>
   <si>
     <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huzi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….就在这个时候，突然！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvsheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男生们哄笑的声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhujue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡子，你这鬼故事也不行啊，也就吓唬吓唬女生了，我来一个！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唉呀别说了，我…我害怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有嘛鬼啊，都是一传十十传百胡咧咧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗨，别瞎起哄啊，我给你们讲个前两年我真经历过的事吧，真事啊，王八蛋编瞎话，故事发生就发生在一个地下室.......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎呀你怕什么啊，你也不看看我们现在在什么地方，日报大厦！传闻全天津市闹鬼最邪乎的地方，你连冒险队都敢报名，几个鬼故事就不行了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是嘛，这半天了，连个鬼影都看不着，不活跃活跃气氛，一会鬼都得睡着了。唉，你们说这地方到底有鬼没鬼啊？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +235,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,27 +546,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="74.88671875" customWidth="1"/>
+    <col min="3" max="3" width="74.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -522,17 +576,20 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -542,21 +599,24 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -564,19 +624,22 @@
       <c r="F3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -584,25 +647,169 @@
       <c r="F4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -628,24 +835,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/Dialogue.xlsx
+++ b/Assets/Resources/Excel/Dialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Unity Demos\-YIN\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!xiaoyinyehua\-YIN\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3861AC-2450-4F9F-BD29-E82803E5DC52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3B0CC-F95B-43E3-A097-AA57CD40F105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1524" yWindow="1944" windowWidth="17088" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>对话ID</t>
   </si>
@@ -174,6 +174,14 @@
   </si>
   <si>
     <t>就是嘛，这半天了，连个鬼影都看不着，不活跃活跃气氛，一会鬼都得睡着了。唉，你们说这地方到底有鬼没鬼啊？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在左侧显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isShowLeft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -559,7 +567,7 @@
     <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +589,11 @@
       <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -604,8 +615,11 @@
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -627,8 +641,11 @@
       <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -650,8 +667,11 @@
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -673,8 +693,11 @@
       <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -696,8 +719,11 @@
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -719,8 +745,11 @@
       <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -742,8 +771,11 @@
       <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -765,8 +797,11 @@
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -788,8 +823,11 @@
       <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -810,6 +848,9 @@
       </c>
       <c r="G11" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/Dialogue.xlsx
+++ b/Assets/Resources/Excel/Dialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!xiaoyinyehua\-YIN\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Unity Demos\-YIN\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3B0CC-F95B-43E3-A097-AA57CD40F105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A94CF2-34E5-43BB-B289-0A8068EEC0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="1944" windowWidth="17088" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>对话ID</t>
   </si>
@@ -77,18 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王八蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王先生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,27 +149,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎呀你怕什么啊，你也不看看我们现在在什么地方，日报大厦！传闻全天津市闹鬼最邪乎的地方，你连冒险队都敢报名，几个鬼故事就不行了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是嘛，这半天了，连个鬼影都看不着，不活跃活跃气氛，一会鬼都得睡着了。唉，你们说这地方到底有鬼没鬼啊？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在左侧显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isShowLeft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择了选项A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哎呀你怕什么啊，你也不看看我们现在在什么地方，日报大厦！传闻全天津市闹鬼最邪乎的地方，你连冒险队都敢报名，几个鬼故事就不行了？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就是嘛，这半天了，连个鬼影都看不着，不活跃活跃气氛，一会鬼都得睡着了。唉，你们说这地方到底有鬼没鬼啊？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否在左侧显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isShowLeft</t>
+    <t>选择了选项B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,6 +269,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -565,6 +591,8 @@
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="74.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -587,10 +615,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -613,10 +641,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -624,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -639,9 +667,9 @@
         <v>-1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="b">
+        <v>30</v>
+      </c>
+      <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -650,10 +678,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -665,9 +693,9 @@
         <v>-1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="b">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -676,10 +704,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -691,9 +719,9 @@
         <v>-1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="b">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -702,10 +730,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -717,9 +745,9 @@
         <v>-1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="b">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -728,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -743,9 +771,9 @@
         <v>-1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="b">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -754,10 +782,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -769,9 +797,9 @@
         <v>-1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="b">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -780,10 +808,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -795,9 +823,9 @@
         <v>-1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="b">
+        <v>21</v>
+      </c>
+      <c r="H9" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -806,10 +834,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -821,9 +849,9 @@
         <v>-1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="b">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -832,24 +860,76 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>-1</v>
       </c>
-      <c r="F11">
-        <v>-1</v>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="b">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -865,7 +945,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -887,13 +967,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -912,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/Dialogue.xlsx
+++ b/Assets/Resources/Excel/Dialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Unity Demos\-YIN\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!xiaoyinyehua\-YIN\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A94CF2-34E5-43BB-B289-0A8068EEC0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CA17E0-1141-4673-A8B2-6235560CA66B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1068" windowWidth="17088" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>对话ID</t>
   </si>
@@ -133,75 +133,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>唉呀别说了，我…我害怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有嘛鬼啊，都是一传十十传百胡咧咧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗨，别瞎起哄啊，我给你们讲个前两年我真经历过的事吧，真事啊，王八蛋编瞎话，故事发生就发生在一个地下室.......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎呀你怕什么啊，你也不看看我们现在在什么地方，日报大厦！传闻全天津市闹鬼最邪乎的地方，你连冒险队都敢报名，几个鬼故事就不行了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是嘛，这半天了，连个鬼影都看不着，不活跃活跃气氛，一会鬼都得睡着了。唉，你们说这地方到底有鬼没鬼啊？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在左侧显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isShowLeft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择了选项A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择了选项B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vocalEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musicEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarlySummerNight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLIZZARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Thunder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>唉呀别说了，我…我害怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有嘛鬼啊，都是一传十十传百胡咧咧的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗨，别瞎起哄啊，我给你们讲个前两年我真经历过的事吧，真事啊，王八蛋编瞎话，故事发生就发生在一个地下室.......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哎呀你怕什么啊，你也不看看我们现在在什么地方，日报大厦！传闻全天津市闹鬼最邪乎的地方，你连冒险队都敢报名，几个鬼故事就不行了？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就是嘛，这半天了，连个鬼影都看不着，不活跃活跃气氛，一会鬼都得睡着了。唉，你们说这地方到底有鬼没鬼啊？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否在左侧显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isShowLeft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择了选项A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择了选项B</t>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -593,9 +629,12 @@
     <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,10 +657,19 @@
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -644,10 +692,19 @@
         <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -667,13 +724,22 @@
         <v>-1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -698,8 +764,17 @@
       <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -724,8 +799,17 @@
       <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -750,16 +834,25 @@
       <c r="H6" s="6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -776,8 +869,17 @@
       <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -785,7 +887,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -802,8 +904,17 @@
       <c r="H8" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -811,7 +922,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -828,8 +939,17 @@
       <c r="H9" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -837,7 +957,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -854,8 +974,17 @@
       <c r="H10" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -863,16 +992,16 @@
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>-1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>21</v>
@@ -880,8 +1009,17 @@
       <c r="H11" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -889,11 +1027,11 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E12">
         <v>-1</v>
       </c>
@@ -906,8 +1044,17 @@
       <c r="H12" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -915,10 +1062,10 @@
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -931,6 +1078,15 @@
       </c>
       <c r="H13" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -981,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
